--- a/2018_Statistical_Annex_Table_1.xlsx
+++ b/2018_Statistical_Annex_Table_1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\2 0 2 0 - 1\E S T.   P A R A   E L   A N Á L I S I S   P O L Í T I C O\EFA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="275">
   <si>
     <t>Country</t>
   </si>
@@ -716,39 +721,6 @@
   </si>
   <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>a. Data refer to 2017 or the most recent year available.</t>
-  </si>
-  <si>
-    <t>b. In calculating the HDI value, expected years of schooling is capped at 18 years.</t>
-  </si>
-  <si>
-    <t>d. Based on data from the national statistical office.</t>
-  </si>
-  <si>
-    <t>e. In calculating the HDI value, GNI per capita is capped at $75,000.</t>
-  </si>
-  <si>
-    <t>f. Updated by HDRO based on data from UNESCO Institute for Statistics (2018).</t>
-  </si>
-  <si>
-    <t>g. Value from UNDESA (2011).</t>
-  </si>
-  <si>
-    <t>h. Imputed mean years of schooling for Austria.</t>
-  </si>
-  <si>
-    <t>i. Estimated using the purchasing power parity (PPP) rate and projected growth rate of Switzerland.</t>
-  </si>
-  <si>
-    <t>j. Based on Barro and Lee (2016).</t>
-  </si>
-  <si>
-    <t>p. Based on a cross-country regression and the projected growth rate from UNECLAC (2018).</t>
-  </si>
-  <si>
-    <t>q. Updated by HDRO based on data from ICF Macro Demographic and Health Surveys for 2006-2017.</t>
   </si>
   <si>
     <t>Table 1. Human Development Index and its components</t>
@@ -920,9 +892,6 @@
       </rPr>
       <t>Ranking by HDI value for 2016, which was calculated using the same most recently revised data available in 2018 that were used to calculate HDI values for 2017.</t>
     </r>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Main data sources</t>
@@ -993,9 +962,6 @@
     <t>Column 6: Calculated based on data in columns 1 and 5.</t>
   </si>
   <si>
-    <t>s. HDRO estimate based on data from World Bank (2018b), United Nations Statistics Division (2018b) and projected growth rates from UNESCWA (2018).</t>
-  </si>
-  <si>
     <t>SDG 4.3</t>
   </si>
   <si>
@@ -1008,9 +974,6 @@
     <t>Column 5: World Bank (2018b), IMF (2018) and United Nations Statistics Division (2018b).</t>
   </si>
   <si>
-    <t>c. Based on data from OECD (2017a).</t>
-  </si>
-  <si>
     <t>Column 3: UNESCO Institute for Statistics (2018), ICF Macro Demographic and Health Surveys, UNICEF Multiple Indicator Cluster Surveys and OECD (2017a).</t>
   </si>
   <si>
@@ -1020,34 +983,28 @@
     <t>Column 4: UNESCO Institute for Statistics (2018), Barro and Lee (2016), ICF Macro Demographic and Health Surveys, UNICEF Multiple Indicator Cluster Surveys and OECD (2017a).</t>
   </si>
   <si>
-    <t>r. Updated by HDRO based on Syrian Center for Policy Research (2017).</t>
-  </si>
-  <si>
-    <t>k. HDRO estimate based on data from World Bank (2018b) and United Nations Statistics Division (2018b).</t>
-  </si>
-  <si>
-    <t>l. Updated by HDRO using Barro and Lee (2016) estimates.</t>
-  </si>
-  <si>
-    <t>m. Estimated using the PPP rate and projected growth rate of Spain.</t>
-  </si>
-  <si>
-    <t>n. Based on cross-country regression.</t>
-  </si>
-  <si>
-    <t>o. Updated by HDRO based on data from United Nations Children's Fund (UNICEF) Multiple Indicator Cluster Surveys for 2006-2017.</t>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,###,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,###,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,###,##0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1594,7 +1551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1605,13 +1562,13 @@
   <dimension ref="A1:P267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C224" sqref="C224:O224"/>
+      <selection pane="bottomRight" activeCell="A230" sqref="A230:K249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
@@ -1629,59 +1586,59 @@
     <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="7" customFormat="1" ht="15">
       <c r="B1" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="32" customFormat="1">
+      <c r="E2" s="32" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="32" t="s">
-        <v>255</v>
-      </c>
       <c r="G2" s="32" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="50.1" customHeight="1">
       <c r="C3" s="9" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="9" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="15">
       <c r="A4" s="11" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
@@ -1697,14 +1654,14 @@
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="16"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="17.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="18" t="s">
@@ -1739,9 +1696,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="15">
       <c r="B6" s="39" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -1758,7 +1715,7 @@
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
     </row>
-    <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="14.25">
       <c r="A7" s="29">
         <v>1</v>
       </c>
@@ -1793,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="14.25">
       <c r="A8" s="29">
         <v>2</v>
       </c>
@@ -1828,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="16.5">
       <c r="A9" s="29">
         <v>3</v>
       </c>
@@ -1865,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="29">
         <v>4</v>
       </c>
@@ -1904,7 +1861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="14.25">
       <c r="A11" s="29">
         <v>5</v>
       </c>
@@ -1939,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="29">
         <v>6</v>
       </c>
@@ -1978,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14.25">
       <c r="A13" s="29">
         <v>7</v>
       </c>
@@ -2013,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="16.5">
       <c r="A14" s="29">
         <v>7</v>
       </c>
@@ -2048,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="16.5">
       <c r="A15" s="29">
         <v>9</v>
       </c>
@@ -2087,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="16.5">
       <c r="A16" s="29">
         <v>10</v>
       </c>
@@ -2122,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="16.5">
       <c r="A17" s="29">
         <v>11</v>
       </c>
@@ -2161,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="16.5">
       <c r="A18" s="29">
         <v>12</v>
       </c>
@@ -2198,7 +2155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="29">
         <v>13</v>
       </c>
@@ -2233,7 +2190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="29">
         <v>14</v>
       </c>
@@ -2270,7 +2227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="29">
         <v>15</v>
       </c>
@@ -2305,7 +2262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="29">
         <v>16</v>
       </c>
@@ -2342,7 +2299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="16.5">
       <c r="A23" s="29">
         <v>17</v>
       </c>
@@ -2379,7 +2336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="16.5">
       <c r="A24" s="29">
         <v>17</v>
       </c>
@@ -2420,7 +2377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="16.5">
       <c r="A25" s="29">
         <v>19</v>
       </c>
@@ -2457,7 +2414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="14.25">
       <c r="A26" s="29">
         <v>20</v>
       </c>
@@ -2492,7 +2449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="16.5">
       <c r="A27" s="29">
         <v>21</v>
       </c>
@@ -2531,7 +2488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="14.25">
       <c r="A28" s="29">
         <v>22</v>
       </c>
@@ -2566,7 +2523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="14.25">
       <c r="A29" s="29">
         <v>22</v>
       </c>
@@ -2601,7 +2558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="14.25">
       <c r="A30" s="29">
         <v>24</v>
       </c>
@@ -2636,7 +2593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="14.25">
       <c r="A31" s="29">
         <v>25</v>
       </c>
@@ -2671,7 +2628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="14.25">
       <c r="A32" s="29">
         <v>26</v>
       </c>
@@ -2706,7 +2663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="14.25">
       <c r="A33" s="29">
         <v>27</v>
       </c>
@@ -2741,7 +2698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="16.5">
       <c r="A34" s="29">
         <v>28</v>
       </c>
@@ -2778,7 +2735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="14.25">
       <c r="A35" s="29">
         <v>29</v>
       </c>
@@ -2813,7 +2770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="14.25">
       <c r="A36" s="29">
         <v>30</v>
       </c>
@@ -2848,7 +2805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="14.25">
       <c r="A37" s="29">
         <v>31</v>
       </c>
@@ -2883,7 +2840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="14.25">
       <c r="A38" s="29">
         <v>32</v>
       </c>
@@ -2918,7 +2875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="14.25">
       <c r="A39" s="29">
         <v>33</v>
       </c>
@@ -2953,7 +2910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="16.5">
       <c r="A40" s="29">
         <v>34</v>
       </c>
@@ -2990,7 +2947,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="16.5">
       <c r="A41" s="29">
         <v>35</v>
       </c>
@@ -3031,7 +2988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="14.25">
       <c r="A42" s="29">
         <v>35</v>
       </c>
@@ -3066,7 +3023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="16.5">
       <c r="A43" s="29">
         <v>37</v>
       </c>
@@ -3103,7 +3060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="14.25">
       <c r="A44" s="29">
         <v>38</v>
       </c>
@@ -3138,7 +3095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="16.5">
       <c r="A45" s="29">
         <v>39</v>
       </c>
@@ -3177,7 +3134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="16.5">
       <c r="A46" s="29">
         <v>39</v>
       </c>
@@ -3214,7 +3171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="16.5">
       <c r="A47" s="29">
         <v>41</v>
       </c>
@@ -3251,7 +3208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="14.25">
       <c r="A48" s="29">
         <v>41</v>
       </c>
@@ -3286,7 +3243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="16.5">
       <c r="A49" s="29">
         <v>43</v>
       </c>
@@ -3323,7 +3280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="14.25">
       <c r="A50" s="29">
         <v>44</v>
       </c>
@@ -3358,7 +3315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="14.25">
       <c r="A51" s="29">
         <v>45</v>
       </c>
@@ -3393,7 +3350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="16.5">
       <c r="A52" s="29">
         <v>46</v>
       </c>
@@ -3430,7 +3387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="16.5">
       <c r="A53" s="29">
         <v>47</v>
       </c>
@@ -3467,7 +3424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="14.25">
       <c r="A54" s="29">
         <v>48</v>
       </c>
@@ -3502,7 +3459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16.5">
       <c r="A55" s="29">
         <v>49</v>
       </c>
@@ -3539,7 +3496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16.5">
       <c r="A56" s="29">
         <v>50</v>
       </c>
@@ -3576,7 +3533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="14.25">
       <c r="A57" s="29">
         <v>51</v>
       </c>
@@ -3611,7 +3568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="14.25">
       <c r="A58" s="29">
         <v>52</v>
       </c>
@@ -3646,7 +3603,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="14.25">
       <c r="A59" s="29">
         <v>53</v>
       </c>
@@ -3681,7 +3638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16.5">
       <c r="A60" s="29">
         <v>54</v>
       </c>
@@ -3720,7 +3677,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="14.25">
       <c r="A61" s="29">
         <v>55</v>
       </c>
@@ -3755,7 +3712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="14.25">
       <c r="A62" s="29">
         <v>56</v>
       </c>
@@ -3790,7 +3747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="16.5">
       <c r="A63" s="29">
         <v>57</v>
       </c>
@@ -3827,7 +3784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="16.5">
       <c r="A64" s="29">
         <v>58</v>
       </c>
@@ -3866,7 +3823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="16.5">
       <c r="A65" s="29">
         <v>58</v>
       </c>
@@ -3903,10 +3860,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="7" customFormat="1" ht="15">
       <c r="A66" s="18"/>
       <c r="B66" s="40" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C66" s="41"/>
       <c r="D66" s="41"/>
@@ -3923,7 +3880,7 @@
       <c r="O66" s="41"/>
       <c r="P66" s="41"/>
     </row>
-    <row r="67" spans="1:16" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" s="25" customFormat="1" ht="14.25">
       <c r="A67" s="29">
         <v>60</v>
       </c>
@@ -3952,7 +3909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" s="25" customFormat="1" ht="16.5">
       <c r="A68" s="29">
         <v>60</v>
       </c>
@@ -3984,7 +3941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" s="25" customFormat="1" ht="16.5">
       <c r="A69" s="29">
         <v>62</v>
       </c>
@@ -4019,7 +3976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="14.25">
       <c r="A70" s="29">
         <v>63</v>
       </c>
@@ -4055,7 +4012,7 @@
       </c>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="14.25">
       <c r="A71" s="29">
         <v>64</v>
       </c>
@@ -4091,7 +4048,7 @@
       </c>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="16.5">
       <c r="A72" s="29">
         <v>65</v>
       </c>
@@ -4129,7 +4086,7 @@
       </c>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="16.5">
       <c r="A73" s="29">
         <v>66</v>
       </c>
@@ -4167,7 +4124,7 @@
       </c>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="14.25">
       <c r="A74" s="29">
         <v>67</v>
       </c>
@@ -4203,7 +4160,7 @@
       </c>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="14.25">
       <c r="A75" s="29">
         <v>68</v>
       </c>
@@ -4239,7 +4196,7 @@
       </c>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="16.5">
       <c r="A76" s="29">
         <v>69</v>
       </c>
@@ -4281,7 +4238,7 @@
       </c>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="16.5">
       <c r="A77" s="29">
         <v>70</v>
       </c>
@@ -4323,7 +4280,7 @@
       </c>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="14.25">
       <c r="A78" s="29">
         <v>70</v>
       </c>
@@ -4359,7 +4316,7 @@
       </c>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="16.5">
       <c r="A79" s="29">
         <v>72</v>
       </c>
@@ -4401,7 +4358,7 @@
       </c>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="16.5">
       <c r="A80" s="29">
         <v>73</v>
       </c>
@@ -4441,7 +4398,7 @@
       </c>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="14.25">
       <c r="A81" s="29">
         <v>74</v>
       </c>
@@ -4477,7 +4434,7 @@
       </c>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="16.5">
       <c r="A82" s="29">
         <v>75</v>
       </c>
@@ -4517,7 +4474,7 @@
       </c>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="16.5">
       <c r="A83" s="29">
         <v>76</v>
       </c>
@@ -4555,7 +4512,7 @@
       </c>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="16.5">
       <c r="A84" s="29">
         <v>77</v>
       </c>
@@ -4593,7 +4550,7 @@
       </c>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="16.5">
       <c r="A85" s="29">
         <v>78</v>
       </c>
@@ -4631,7 +4588,7 @@
       </c>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="16.5">
       <c r="A86" s="29">
         <v>79</v>
       </c>
@@ -4671,7 +4628,7 @@
       </c>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="16.5">
       <c r="A87" s="29">
         <v>80</v>
       </c>
@@ -4711,7 +4668,7 @@
       </c>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="16.5">
       <c r="A88" s="29">
         <v>80</v>
       </c>
@@ -4749,7 +4706,7 @@
       </c>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="16.5">
       <c r="A89" s="29">
         <v>80</v>
       </c>
@@ -4787,7 +4744,7 @@
       </c>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="14.25">
       <c r="A90" s="29">
         <v>83</v>
       </c>
@@ -4823,7 +4780,7 @@
       </c>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="14.25">
       <c r="A91" s="29">
         <v>83</v>
       </c>
@@ -4859,7 +4816,7 @@
       </c>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="16.5">
       <c r="A92" s="29">
         <v>85</v>
       </c>
@@ -4897,7 +4854,7 @@
       </c>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="16.5">
       <c r="A93" s="29">
         <v>86</v>
       </c>
@@ -4935,7 +4892,7 @@
       </c>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="14.25">
       <c r="A94" s="29">
         <v>86</v>
       </c>
@@ -4971,7 +4928,7 @@
       </c>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="16.5">
       <c r="A95" s="29">
         <v>88</v>
       </c>
@@ -5009,7 +4966,7 @@
       </c>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="14.25">
       <c r="A96" s="29">
         <v>89</v>
       </c>
@@ -5045,7 +5002,7 @@
       </c>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="14.25">
       <c r="A97" s="29">
         <v>90</v>
       </c>
@@ -5081,7 +5038,7 @@
       </c>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="16.5">
       <c r="A98" s="29">
         <v>90</v>
       </c>
@@ -5121,7 +5078,7 @@
       </c>
       <c r="P98" s="25"/>
     </row>
-    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="16.5">
       <c r="A99" s="29">
         <v>92</v>
       </c>
@@ -5163,7 +5120,7 @@
       </c>
       <c r="P99" s="25"/>
     </row>
-    <row r="100" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="14.25">
       <c r="A100" s="29">
         <v>92</v>
       </c>
@@ -5199,7 +5156,7 @@
       </c>
       <c r="P100" s="25"/>
     </row>
-    <row r="101" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="14.25">
       <c r="A101" s="29">
         <v>94</v>
       </c>
@@ -5235,7 +5192,7 @@
       </c>
       <c r="P101" s="25"/>
     </row>
-    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="16.5">
       <c r="A102" s="29">
         <v>95</v>
       </c>
@@ -5275,7 +5232,7 @@
       </c>
       <c r="P102" s="25"/>
     </row>
-    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="16.5">
       <c r="A103" s="29">
         <v>95</v>
       </c>
@@ -5315,7 +5272,7 @@
       </c>
       <c r="P103" s="25"/>
     </row>
-    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="16.5">
       <c r="A104" s="29">
         <v>97</v>
       </c>
@@ -5355,7 +5312,7 @@
       </c>
       <c r="P104" s="25"/>
     </row>
-    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="16.5">
       <c r="A105" s="29">
         <v>98</v>
       </c>
@@ -5397,7 +5354,7 @@
       </c>
       <c r="P105" s="25"/>
     </row>
-    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="16.5">
       <c r="A106" s="29">
         <v>99</v>
       </c>
@@ -5435,7 +5392,7 @@
       </c>
       <c r="P106" s="25"/>
     </row>
-    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="16.5">
       <c r="A107" s="29">
         <v>100</v>
       </c>
@@ -5477,7 +5434,7 @@
       </c>
       <c r="P107" s="25"/>
     </row>
-    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="16.5">
       <c r="A108" s="29">
         <v>101</v>
       </c>
@@ -5517,7 +5474,7 @@
       </c>
       <c r="P108" s="25"/>
     </row>
-    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="16.5">
       <c r="A109" s="29">
         <v>101</v>
       </c>
@@ -5559,7 +5516,7 @@
       </c>
       <c r="P109" s="25"/>
     </row>
-    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="16.5">
       <c r="A110" s="29">
         <v>103</v>
       </c>
@@ -5603,7 +5560,7 @@
       </c>
       <c r="P110" s="25"/>
     </row>
-    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="16.5">
       <c r="A111" s="29">
         <v>104</v>
       </c>
@@ -5645,7 +5602,7 @@
       </c>
       <c r="P111" s="25"/>
     </row>
-    <row r="112" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="14.25">
       <c r="A112" s="29">
         <v>105</v>
       </c>
@@ -5681,7 +5638,7 @@
       </c>
       <c r="P112" s="25"/>
     </row>
-    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="16.5">
       <c r="A113" s="29">
         <v>106</v>
       </c>
@@ -5719,7 +5676,7 @@
       </c>
       <c r="P113" s="25"/>
     </row>
-    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="16.5">
       <c r="A114" s="29">
         <v>106</v>
       </c>
@@ -5759,7 +5716,7 @@
       </c>
       <c r="P114" s="25"/>
     </row>
-    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="16.5">
       <c r="A115" s="29">
         <v>108</v>
       </c>
@@ -5801,7 +5758,7 @@
       </c>
       <c r="P115" s="25"/>
     </row>
-    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="16.5">
       <c r="A116" s="29">
         <v>108</v>
       </c>
@@ -5841,7 +5798,7 @@
       </c>
       <c r="P116" s="25"/>
     </row>
-    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="16.5">
       <c r="A117" s="29">
         <v>110</v>
       </c>
@@ -5881,7 +5838,7 @@
       </c>
       <c r="P117" s="25"/>
     </row>
-    <row r="118" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="14.25">
       <c r="A118" s="29">
         <v>110</v>
       </c>
@@ -5917,7 +5874,7 @@
       </c>
       <c r="P118" s="25"/>
     </row>
-    <row r="119" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="14.25">
       <c r="A119" s="29">
         <v>112</v>
       </c>
@@ -5953,10 +5910,10 @@
       </c>
       <c r="P119" s="25"/>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="15">
       <c r="A120" s="18"/>
       <c r="B120" s="40" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C120" s="41"/>
       <c r="D120" s="41"/>
@@ -5973,7 +5930,7 @@
       <c r="O120" s="41"/>
       <c r="P120" s="41"/>
     </row>
-    <row r="121" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" s="25" customFormat="1" ht="16.5">
       <c r="A121" s="29">
         <v>113</v>
       </c>
@@ -6005,7 +5962,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" s="25" customFormat="1" ht="14.25">
       <c r="A122" s="29">
         <v>113</v>
       </c>
@@ -6034,7 +5991,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" s="25" customFormat="1" ht="16.5">
       <c r="A123" s="29">
         <v>115</v>
       </c>
@@ -6066,7 +6023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" s="25" customFormat="1" ht="14.25">
       <c r="A124" s="29">
         <v>116</v>
       </c>
@@ -6095,7 +6052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="16.5">
       <c r="A125" s="29">
         <v>116</v>
       </c>
@@ -6135,7 +6092,7 @@
       </c>
       <c r="P125" s="25"/>
     </row>
-    <row r="126" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="14.25">
       <c r="A126" s="29">
         <v>118</v>
       </c>
@@ -6171,7 +6128,7 @@
       </c>
       <c r="P126" s="25"/>
     </row>
-    <row r="127" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="14.25">
       <c r="A127" s="29">
         <v>119</v>
       </c>
@@ -6207,7 +6164,7 @@
       </c>
       <c r="P127" s="25"/>
     </row>
-    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="16.5">
       <c r="A128" s="29">
         <v>120</v>
       </c>
@@ -6249,7 +6206,7 @@
       </c>
       <c r="P128" s="25"/>
     </row>
-    <row r="129" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="14.25">
       <c r="A129" s="29">
         <v>121</v>
       </c>
@@ -6285,7 +6242,7 @@
       </c>
       <c r="P129" s="25"/>
     </row>
-    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="16.5">
       <c r="A130" s="29">
         <v>122</v>
       </c>
@@ -6323,7 +6280,7 @@
       </c>
       <c r="P130" s="25"/>
     </row>
-    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="16.5">
       <c r="A131" s="29">
         <v>123</v>
       </c>
@@ -6361,7 +6318,7 @@
       </c>
       <c r="P131" s="25"/>
     </row>
-    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="16.5">
       <c r="A132" s="29">
         <v>124</v>
       </c>
@@ -6399,7 +6356,7 @@
       </c>
       <c r="P132" s="25"/>
     </row>
-    <row r="133" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="14.25">
       <c r="A133" s="29">
         <v>125</v>
       </c>
@@ -6435,7 +6392,7 @@
       </c>
       <c r="P133" s="25"/>
     </row>
-    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="16.5">
       <c r="A134" s="29">
         <v>125</v>
       </c>
@@ -6475,7 +6432,7 @@
       </c>
       <c r="P134" s="25"/>
     </row>
-    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="16.5">
       <c r="A135" s="29">
         <v>127</v>
       </c>
@@ -6513,7 +6470,7 @@
       </c>
       <c r="P135" s="25"/>
     </row>
-    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="16.5">
       <c r="A136" s="29">
         <v>127</v>
       </c>
@@ -6553,7 +6510,7 @@
       </c>
       <c r="P136" s="25"/>
     </row>
-    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="16.5">
       <c r="A137" s="29">
         <v>129</v>
       </c>
@@ -6593,7 +6550,7 @@
       </c>
       <c r="P137" s="25"/>
     </row>
-    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="16.5">
       <c r="A138" s="29">
         <v>130</v>
       </c>
@@ -6631,7 +6588,7 @@
       </c>
       <c r="P138" s="25"/>
     </row>
-    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="16.5">
       <c r="A139" s="29">
         <v>131</v>
       </c>
@@ -6673,7 +6630,7 @@
       </c>
       <c r="P139" s="25"/>
     </row>
-    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="16.5">
       <c r="A140" s="29">
         <v>132</v>
       </c>
@@ -6711,7 +6668,7 @@
       </c>
       <c r="P140" s="25"/>
     </row>
-    <row r="141" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="14.25">
       <c r="A141" s="29">
         <v>133</v>
       </c>
@@ -6747,7 +6704,7 @@
       </c>
       <c r="P141" s="25"/>
     </row>
-    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="16.5">
       <c r="A142" s="29">
         <v>134</v>
       </c>
@@ -6785,7 +6742,7 @@
       </c>
       <c r="P142" s="25"/>
     </row>
-    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="16.5">
       <c r="A143" s="29">
         <v>134</v>
       </c>
@@ -6825,7 +6782,7 @@
       </c>
       <c r="P143" s="25"/>
     </row>
-    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="16.5">
       <c r="A144" s="29">
         <v>136</v>
       </c>
@@ -6865,7 +6822,7 @@
       </c>
       <c r="P144" s="25"/>
     </row>
-    <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="16.5">
       <c r="A145" s="29">
         <v>137</v>
       </c>
@@ -6903,7 +6860,7 @@
       </c>
       <c r="P145" s="25"/>
     </row>
-    <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="16.5">
       <c r="A146" s="29">
         <v>138</v>
       </c>
@@ -6943,7 +6900,7 @@
       </c>
       <c r="P146" s="25"/>
     </row>
-    <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="16.5">
       <c r="A147" s="29">
         <v>139</v>
       </c>
@@ -6981,7 +6938,7 @@
       </c>
       <c r="P147" s="25"/>
     </row>
-    <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="16.5">
       <c r="A148" s="29">
         <v>140</v>
       </c>
@@ -7019,7 +6976,7 @@
       </c>
       <c r="P148" s="25"/>
     </row>
-    <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="16.5">
       <c r="A149" s="29">
         <v>141</v>
       </c>
@@ -7059,7 +7016,7 @@
       </c>
       <c r="P149" s="25"/>
     </row>
-    <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="16.5">
       <c r="A150" s="29">
         <v>142</v>
       </c>
@@ -7099,7 +7056,7 @@
       </c>
       <c r="P150" s="25"/>
     </row>
-    <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="16.5">
       <c r="A151" s="29">
         <v>143</v>
       </c>
@@ -7139,7 +7096,7 @@
       </c>
       <c r="P151" s="25"/>
     </row>
-    <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="16.5">
       <c r="A152" s="29">
         <v>144</v>
       </c>
@@ -7177,7 +7134,7 @@
       </c>
       <c r="P152" s="25"/>
     </row>
-    <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="16.5">
       <c r="A153" s="29">
         <v>144</v>
       </c>
@@ -7219,7 +7176,7 @@
       </c>
       <c r="P153" s="25"/>
     </row>
-    <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="16.5">
       <c r="A154" s="29">
         <v>146</v>
       </c>
@@ -7259,7 +7216,7 @@
       </c>
       <c r="P154" s="25"/>
     </row>
-    <row r="155" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="16.5">
       <c r="A155" s="29">
         <v>147</v>
       </c>
@@ -7299,7 +7256,7 @@
       </c>
       <c r="P155" s="25"/>
     </row>
-    <row r="156" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" ht="16.5">
       <c r="A156" s="29">
         <v>148</v>
       </c>
@@ -7339,7 +7296,7 @@
       </c>
       <c r="P156" s="25"/>
     </row>
-    <row r="157" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" ht="16.5">
       <c r="A157" s="29">
         <v>149</v>
       </c>
@@ -7377,7 +7334,7 @@
       </c>
       <c r="P157" s="25"/>
     </row>
-    <row r="158" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" ht="14.25">
       <c r="A158" s="29">
         <v>150</v>
       </c>
@@ -7413,7 +7370,7 @@
       </c>
       <c r="P158" s="25"/>
     </row>
-    <row r="159" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="16.5">
       <c r="A159" s="29">
         <v>151</v>
       </c>
@@ -7451,10 +7408,10 @@
       </c>
       <c r="P159" s="25"/>
     </row>
-    <row r="160" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="7" customFormat="1" ht="15">
       <c r="A160" s="18"/>
       <c r="B160" s="40" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C160" s="41"/>
       <c r="D160" s="41"/>
@@ -7471,7 +7428,7 @@
       <c r="O160" s="41"/>
       <c r="P160" s="41"/>
     </row>
-    <row r="161" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="16.5">
       <c r="A161" s="29">
         <v>152</v>
       </c>
@@ -7513,7 +7470,7 @@
       </c>
       <c r="P161" s="25"/>
     </row>
-    <row r="162" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="16.5">
       <c r="A162" s="29">
         <v>153</v>
       </c>
@@ -7555,7 +7512,7 @@
       </c>
       <c r="P162" s="25"/>
     </row>
-    <row r="163" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="16.5">
       <c r="A163" s="29">
         <v>154</v>
       </c>
@@ -7595,7 +7552,7 @@
       </c>
       <c r="P163" s="25"/>
     </row>
-    <row r="164" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" ht="16.5">
       <c r="A164" s="29">
         <v>155</v>
       </c>
@@ -7635,7 +7592,7 @@
       </c>
       <c r="P164" s="25"/>
     </row>
-    <row r="165" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="14.25">
       <c r="A165" s="29">
         <v>156</v>
       </c>
@@ -7671,7 +7628,7 @@
       </c>
       <c r="P165" s="25"/>
     </row>
-    <row r="166" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="16.5">
       <c r="A166" s="29">
         <v>157</v>
       </c>
@@ -7711,7 +7668,7 @@
       </c>
       <c r="P166" s="25"/>
     </row>
-    <row r="167" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="16.5">
       <c r="A167" s="29">
         <v>158</v>
       </c>
@@ -7749,7 +7706,7 @@
       </c>
       <c r="P167" s="25"/>
     </row>
-    <row r="168" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="16.5">
       <c r="A168" s="29">
         <v>159</v>
       </c>
@@ -7787,7 +7744,7 @@
       </c>
       <c r="P168" s="25"/>
     </row>
-    <row r="169" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="16.5">
       <c r="A169" s="29">
         <v>159</v>
       </c>
@@ -7825,7 +7782,7 @@
       </c>
       <c r="P169" s="25"/>
     </row>
-    <row r="170" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="16.5">
       <c r="A170" s="29">
         <v>161</v>
       </c>
@@ -7863,7 +7820,7 @@
       </c>
       <c r="P170" s="25"/>
     </row>
-    <row r="171" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="16.5">
       <c r="A171" s="29">
         <v>162</v>
       </c>
@@ -7903,7 +7860,7 @@
       </c>
       <c r="P171" s="25"/>
     </row>
-    <row r="172" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="16.5">
       <c r="A172" s="29">
         <v>163</v>
       </c>
@@ -7941,7 +7898,7 @@
       </c>
       <c r="P172" s="25"/>
     </row>
-    <row r="173" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" ht="14.25">
       <c r="A173" s="29">
         <v>164</v>
       </c>
@@ -7977,7 +7934,7 @@
       </c>
       <c r="P173" s="25"/>
     </row>
-    <row r="174" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" ht="16.5">
       <c r="A174" s="29">
         <v>165</v>
       </c>
@@ -8015,7 +7972,7 @@
       </c>
       <c r="P174" s="25"/>
     </row>
-    <row r="175" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" ht="16.5">
       <c r="A175" s="29">
         <v>165</v>
       </c>
@@ -8055,7 +8012,7 @@
       </c>
       <c r="P175" s="25"/>
     </row>
-    <row r="176" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="16.5">
       <c r="A176" s="29">
         <v>167</v>
       </c>
@@ -8093,7 +8050,7 @@
       </c>
       <c r="P176" s="25"/>
     </row>
-    <row r="177" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="16.5">
       <c r="A177" s="29">
         <v>168</v>
       </c>
@@ -8131,7 +8088,7 @@
       </c>
       <c r="P177" s="25"/>
     </row>
-    <row r="178" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" ht="16.5">
       <c r="A178" s="29">
         <v>168</v>
       </c>
@@ -8171,7 +8128,7 @@
       </c>
       <c r="P178" s="25"/>
     </row>
-    <row r="179" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" ht="16.5">
       <c r="A179" s="29">
         <v>170</v>
       </c>
@@ -8209,7 +8166,7 @@
       </c>
       <c r="P179" s="25"/>
     </row>
-    <row r="180" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="16.5">
       <c r="A180" s="29">
         <v>171</v>
       </c>
@@ -8247,7 +8204,7 @@
       </c>
       <c r="P180" s="25"/>
     </row>
-    <row r="181" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="16.5">
       <c r="A181" s="29">
         <v>172</v>
       </c>
@@ -8285,7 +8242,7 @@
       </c>
       <c r="P181" s="25"/>
     </row>
-    <row r="182" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" ht="16.5">
       <c r="A182" s="29">
         <v>173</v>
       </c>
@@ -8325,7 +8282,7 @@
       </c>
       <c r="P182" s="25"/>
     </row>
-    <row r="183" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="16.5">
       <c r="A183" s="29">
         <v>174</v>
       </c>
@@ -8363,7 +8320,7 @@
       </c>
       <c r="P183" s="25"/>
     </row>
-    <row r="184" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" ht="16.5">
       <c r="A184" s="29">
         <v>175</v>
       </c>
@@ -8401,7 +8358,7 @@
       </c>
       <c r="P184" s="25"/>
     </row>
-    <row r="185" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" ht="16.5">
       <c r="A185" s="29">
         <v>176</v>
       </c>
@@ -8439,7 +8396,7 @@
       </c>
       <c r="P185" s="25"/>
     </row>
-    <row r="186" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" ht="16.5">
       <c r="A186" s="29">
         <v>177</v>
       </c>
@@ -8479,7 +8436,7 @@
       </c>
       <c r="P186" s="25"/>
     </row>
-    <row r="187" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="16.5">
       <c r="A187" s="29">
         <v>178</v>
       </c>
@@ -8519,7 +8476,7 @@
       </c>
       <c r="P187" s="25"/>
     </row>
-    <row r="188" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="16.5">
       <c r="A188" s="29">
         <v>179</v>
       </c>
@@ -8559,7 +8516,7 @@
       </c>
       <c r="P188" s="25"/>
     </row>
-    <row r="189" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" ht="16.5">
       <c r="A189" s="29">
         <v>180</v>
       </c>
@@ -8597,7 +8554,7 @@
       </c>
       <c r="P189" s="25"/>
     </row>
-    <row r="190" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="16.5">
       <c r="A190" s="29">
         <v>181</v>
       </c>
@@ -8637,7 +8594,7 @@
       </c>
       <c r="P190" s="25"/>
     </row>
-    <row r="191" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" ht="16.5">
       <c r="A191" s="29">
         <v>182</v>
       </c>
@@ -8675,7 +8632,7 @@
       </c>
       <c r="P191" s="25"/>
     </row>
-    <row r="192" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" ht="16.5">
       <c r="A192" s="29">
         <v>183</v>
       </c>
@@ -8713,7 +8670,7 @@
       </c>
       <c r="P192" s="25"/>
     </row>
-    <row r="193" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" ht="16.5">
       <c r="A193" s="29">
         <v>184</v>
       </c>
@@ -8753,7 +8710,7 @@
       </c>
       <c r="P193" s="25"/>
     </row>
-    <row r="194" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" ht="16.5">
       <c r="A194" s="29">
         <v>185</v>
       </c>
@@ -8791,7 +8748,7 @@
       </c>
       <c r="P194" s="25"/>
     </row>
-    <row r="195" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" ht="16.5">
       <c r="A195" s="29">
         <v>186</v>
       </c>
@@ -8829,7 +8786,7 @@
       </c>
       <c r="P195" s="25"/>
     </row>
-    <row r="196" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" ht="16.5">
       <c r="A196" s="29">
         <v>187</v>
       </c>
@@ -8869,7 +8826,7 @@
       </c>
       <c r="P196" s="25"/>
     </row>
-    <row r="197" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" ht="16.5">
       <c r="A197" s="29">
         <v>188</v>
       </c>
@@ -8909,7 +8866,7 @@
       </c>
       <c r="P197" s="25"/>
     </row>
-    <row r="198" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" ht="16.5">
       <c r="A198" s="29">
         <v>189</v>
       </c>
@@ -8947,10 +8904,10 @@
       </c>
       <c r="P198" s="25"/>
     </row>
-    <row r="199" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" s="7" customFormat="1" ht="15">
       <c r="A199" s="29"/>
       <c r="B199" s="40" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C199" s="41"/>
       <c r="D199" s="41"/>
@@ -8967,7 +8924,7 @@
       <c r="O199" s="41"/>
       <c r="P199" s="41"/>
     </row>
-    <row r="200" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" ht="14.25">
       <c r="A200" s="6" t="s">
         <v>128</v>
       </c>
@@ -8996,7 +8953,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" ht="14.25">
       <c r="A201" s="6" t="s">
         <v>128</v>
       </c>
@@ -9025,7 +8982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" ht="16.5">
       <c r="A202" s="6" t="s">
         <v>128</v>
       </c>
@@ -9057,7 +9014,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" ht="14.25">
       <c r="A203" s="6" t="s">
         <v>128</v>
       </c>
@@ -9087,7 +9044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" ht="14.25">
       <c r="A204" s="6" t="s">
         <v>128</v>
       </c>
@@ -9117,7 +9074,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="16.5">
       <c r="A205" s="6" t="s">
         <v>128</v>
       </c>
@@ -9149,7 +9106,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="206" spans="1:16" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" s="7" customFormat="1" ht="16.5">
       <c r="A206" s="6"/>
       <c r="B206" s="2"/>
       <c r="C206" s="6"/>
@@ -9161,12 +9118,12 @@
       <c r="M206" s="6"/>
       <c r="O206" s="6"/>
     </row>
-    <row r="207" spans="1:16" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" s="7" customFormat="1" ht="15">
       <c r="B207" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" ht="14.25">
       <c r="B208" s="2" t="s">
         <v>219</v>
       </c>
@@ -9198,7 +9155,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:15" ht="14.25">
       <c r="B209" s="2" t="s">
         <v>221</v>
       </c>
@@ -9230,7 +9187,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="210" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:15" ht="14.25">
       <c r="B210" s="2" t="s">
         <v>222</v>
       </c>
@@ -9262,7 +9219,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:15" ht="14.25">
       <c r="B211" s="2" t="s">
         <v>223</v>
       </c>
@@ -9294,7 +9251,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:15" ht="14.25">
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
       <c r="E212" s="4"/>
@@ -9304,7 +9261,7 @@
       <c r="M212" s="6"/>
       <c r="O212" s="6"/>
     </row>
-    <row r="213" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" ht="15">
       <c r="B213" s="8" t="s">
         <v>224</v>
       </c>
@@ -9334,7 +9291,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="214" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:15" ht="14.25">
       <c r="B214" s="2"/>
       <c r="C214" s="3"/>
       <c r="E214" s="4"/>
@@ -9344,9 +9301,9 @@
       <c r="M214" s="6"/>
       <c r="O214" s="6"/>
     </row>
-    <row r="215" spans="2:15" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" s="7" customFormat="1" ht="15">
       <c r="B215" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C215" s="3"/>
       <c r="E215" s="4"/>
@@ -9356,7 +9313,7 @@
       <c r="M215" s="6"/>
       <c r="O215" s="6"/>
     </row>
-    <row r="216" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:15" ht="14.25">
       <c r="B216" s="2" t="s">
         <v>225</v>
       </c>
@@ -9386,7 +9343,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:15" ht="14.25">
       <c r="B217" s="2" t="s">
         <v>226</v>
       </c>
@@ -9416,7 +9373,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:15" ht="14.25">
       <c r="B218" s="2" t="s">
         <v>227</v>
       </c>
@@ -9446,7 +9403,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:15" ht="14.25">
       <c r="B219" s="2" t="s">
         <v>228</v>
       </c>
@@ -9476,7 +9433,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:15" ht="14.25">
       <c r="B220" s="2" t="s">
         <v>229</v>
       </c>
@@ -9506,7 +9463,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:15" ht="14.25">
       <c r="B221" s="2" t="s">
         <v>230</v>
       </c>
@@ -9536,7 +9493,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:15" ht="14.25">
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
       <c r="E222" s="4"/>
@@ -9546,7 +9503,7 @@
       <c r="M222" s="6"/>
       <c r="O222" s="6"/>
     </row>
-    <row r="223" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:15" ht="15">
       <c r="B223" s="24" t="s">
         <v>231</v>
       </c>
@@ -9576,9 +9533,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:15" ht="15">
       <c r="B224" s="24" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C224" s="35">
         <v>0.72229076758469446</v>
@@ -9608,7 +9565,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:15" ht="15">
       <c r="B225" s="24"/>
       <c r="C225" s="3"/>
       <c r="E225" s="4"/>
@@ -9618,9 +9575,9 @@
       <c r="M225" s="6"/>
       <c r="O225" s="6"/>
     </row>
-    <row r="226" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:15" ht="15">
       <c r="B226" s="24" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C226" s="3">
         <v>0.89461972813285184</v>
@@ -9644,7 +9601,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:15" ht="14.25">
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
       <c r="E227" s="4"/>
@@ -9654,7 +9611,7 @@
       <c r="M227" s="6"/>
       <c r="O227" s="6"/>
     </row>
-    <row r="228" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:15" ht="15">
       <c r="B228" s="8" t="s">
         <v>232</v>
       </c>
@@ -9684,7 +9641,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:15" ht="14.25">
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
       <c r="E229" s="4"/>
@@ -9694,121 +9651,81 @@
       <c r="M229" s="6"/>
       <c r="O229" s="6"/>
     </row>
-    <row r="230" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B230" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="231" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B231" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="232" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B232" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="233" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B233" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="234" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B234" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="235" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B235" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="236" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B236" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="237" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B237" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="238" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B238" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="239" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B239" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="240" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B240" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:15" ht="15">
+      <c r="B230" s="8"/>
+    </row>
+    <row r="231" spans="2:15" ht="14.25">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:15" ht="14.25">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="2:15" ht="14.25">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="2:15" ht="14.25">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="2:15" ht="14.25">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="2:15" ht="14.25">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="2:15" ht="14.25">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="2:15" ht="14.25">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="2:15" ht="14.25">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:15" ht="14.25">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="1:13" ht="14.25">
       <c r="A241" s="16"/>
-      <c r="B241" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="1:13" ht="14.25">
       <c r="A242" s="16"/>
-      <c r="B242" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:13" ht="14.25">
       <c r="A243" s="16"/>
-      <c r="B243" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:13" ht="14.25">
       <c r="A244" s="16"/>
-      <c r="B244" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="1:13" ht="14.25">
       <c r="A245" s="16"/>
-      <c r="B245" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B246" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B247" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B248" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B249" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:13" ht="14.25">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:13" ht="14.25">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:13" ht="14.25">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:13" ht="14.25">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="251" spans="1:13" s="7" customFormat="1" ht="15">
       <c r="B251" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H251" s="21"/>
       <c r="M251" s="22"/>
     </row>
-    <row r="252" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" s="7" customFormat="1" ht="15">
       <c r="B252" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
@@ -9822,9 +9739,9 @@
       <c r="L252" s="20"/>
       <c r="M252" s="20"/>
     </row>
-    <row r="253" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" s="7" customFormat="1" ht="15">
       <c r="B253" s="20" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
@@ -9838,9 +9755,9 @@
       <c r="L253" s="20"/>
       <c r="M253" s="20"/>
     </row>
-    <row r="254" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" s="7" customFormat="1" ht="15">
       <c r="B254" s="20" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
@@ -9854,9 +9771,9 @@
       <c r="L254" s="20"/>
       <c r="M254" s="20"/>
     </row>
-    <row r="255" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" s="7" customFormat="1" ht="15">
       <c r="B255" s="20" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
@@ -9870,9 +9787,9 @@
       <c r="L255" s="20"/>
       <c r="M255" s="20"/>
     </row>
-    <row r="256" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" s="7" customFormat="1" ht="15">
       <c r="B256" s="20" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
@@ -9886,9 +9803,9 @@
       <c r="L256" s="20"/>
       <c r="M256" s="20"/>
     </row>
-    <row r="257" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13" s="7" customFormat="1" ht="15">
       <c r="B257" s="20" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
@@ -9902,9 +9819,9 @@
       <c r="L257" s="20"/>
       <c r="M257" s="20"/>
     </row>
-    <row r="258" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13" s="7" customFormat="1" ht="15">
       <c r="B258" s="20" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
@@ -9918,7 +9835,7 @@
       <c r="L258" s="20"/>
       <c r="M258" s="20"/>
     </row>
-    <row r="259" spans="2:13" s="7" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:13" s="7" customFormat="1" ht="13.15" customHeight="1">
       <c r="B259" s="23"/>
       <c r="C259" s="23"/>
       <c r="D259" s="23"/>
@@ -9932,42 +9849,42 @@
       <c r="L259" s="23"/>
       <c r="M259" s="23"/>
     </row>
-    <row r="260" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" ht="15">
       <c r="B260" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="2:13" ht="14.25">
+      <c r="B261" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="262" spans="2:13" ht="14.25">
+      <c r="B262" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="2:13" ht="14.25">
+      <c r="B263" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="264" spans="2:13" ht="14.25">
+      <c r="B264" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B261" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="262" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B262" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="263" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B263" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="264" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B264" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="265" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:13" ht="14.25">
       <c r="B265" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="266" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="2:13" ht="14.25">
       <c r="B266" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="267" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="267" spans="2:13" ht="14.25">
       <c r="B267" s="2"/>
     </row>
   </sheetData>
